--- a/docs/CareConnect-Location-1.xlsx
+++ b/docs/CareConnect-Location-1.xlsx
@@ -486,7 +486,7 @@
     <t>https://fhir.nhs.uk/Id/ods-site-code</t>
   </si>
   <si>
-    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
+    <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
     <t>Identifier.system</t>
